--- a/biology/Biochimie/Protéine_d'origine_unicellulaire/Protéine_d'origine_unicellulaire.xlsx
+++ b/biology/Biochimie/Protéine_d'origine_unicellulaire/Protéine_d'origine_unicellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_d%27origine_unicellulaire</t>
+          <t>Protéine_d'origine_unicellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les P.O.U. (SCP: Single Cell Protein en anglais) sont des protéines d'origine unicellulaire[1],[2].
-Elles peuvent être issues de cultures d'algues (cyanobactéries)[3], de levures, de champignons ou de bactéries.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les P.O.U. (SCP: Single Cell Protein en anglais) sont des protéines d'origine unicellulaire,.
+Elles peuvent être issues de cultures d'algues (cyanobactéries), de levures, de champignons ou de bactéries.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_d%27origine_unicellulaire</t>
+          <t>Protéine_d'origine_unicellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1960, des Protéines d'Origine Unicellulaire cultivées sur des dérivés du Pétrole (les P.O.U.P.) furent cultivées sur un milieu principalement constitué de paraffine. Elles pourraient selon certains[4] fournir une solution de substitution pour la production de protéines dans l'alimentation animale.
-Cependant l'augmentation du prix du pétrole due aux chocs pétroliers des années 1970 a fini par faire abandonner cette technologie non rentable[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1960, des Protéines d'Origine Unicellulaire cultivées sur des dérivés du Pétrole (les P.O.U.P.) furent cultivées sur un milieu principalement constitué de paraffine. Elles pourraient selon certains fournir une solution de substitution pour la production de protéines dans l'alimentation animale.
+Cependant l'augmentation du prix du pétrole due aux chocs pétroliers des années 1970 a fini par faire abandonner cette technologie non rentable.
 </t>
         </is>
       </c>
